--- a/DragPrediction/NL2VP DragX/1L/n/4/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1L/n/4/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>9.2647372520987606E-2</v>
+        <v>0.476417802</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>2.3213082808690171</v>
+        <v>11.936793875999998</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" si="0">A3*$E$1</f>
-        <v>0.70289693645030582</v>
+        <v>3.6144858120000003</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.4145498064198349E-2</v>
+        <v>0.48412156800000006</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.55969938604068592</v>
+        <v>2.8781253480000002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.10764916946501653</v>
+        <v>0.55356109200000003</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.31507060224368183</v>
+        <v>1.620178098</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>5.5486299119566124E-2</v>
+        <v>0.28532553000000005</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-0.10593916823164463</v>
+        <v>-0.54476780400000002</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.2929383240830583E-2</v>
+        <v>0.32359987800000001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-7.6451431739789258E-2</v>
+        <v>-0.39313390200000004</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>7.9424372498169429E-2</v>
+        <v>0.40842156600000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>2.3720325184636366E-2</v>
+        <v>0.12197631600000002</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>6.1008984652747941E-2</v>
+        <v>0.31372467000000004</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.19806592164611159</v>
+        <v>1.0185084420000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>6.1195589791066117E-2</v>
+        <v>0.314684244</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.17851963168392149</v>
+        <v>0.91799614200000001</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>5.3088586035780996E-2</v>
+        <v>0.27299584200000004</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>7.5534847425334714E-2</v>
+        <v>0.38842057800000002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>7.4516551998371899E-2</v>
+        <v>0.38318422800000002</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-0.13245910955259918</v>
+        <v>-0.68114050200000009</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>6.5662408941086783E-2</v>
+        <v>0.33765383400000004</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-0.1316647696949752</v>
+        <v>-0.6770557920000001</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>3.8888798325000001E-2</v>
+        <v>0.19997670000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,10 +806,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-0.13232790523947521</v>
+        <v>-0.68046581400000006</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>